--- a/Learning Path.xlsx
+++ b/Learning Path.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3478\Documents\GITHUB\AWS-Selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2932C50E-6348-47ED-9023-8C212F28A15A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8700B9AD-4D9D-47CB-A846-49120292A0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{B3BCA5DA-55AB-4709-B9C8-2DA624DE6CF6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{B3BCA5DA-55AB-4709-B9C8-2DA624DE6CF6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Oct-Jan2k21" sheetId="1" r:id="rId1"/>
-    <sheet name="Feb-Mar2k21" sheetId="2" r:id="rId2"/>
+    <sheet name="2020" sheetId="1" r:id="rId1"/>
+    <sheet name="2021" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Feb-Mar2k21'!$A$1:$E$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Oct-Jan2k21'!$A$1:$A$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2020'!$B$1:$B$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2021'!$A$1:$E$19</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="91">
   <si>
     <t>Topic</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>On Hold</t>
+  </si>
+  <si>
+    <t>Revision Status</t>
+  </si>
+  <si>
+    <t>Integrate Screen shot in Report</t>
   </si>
 </sst>
 </file>
@@ -377,7 +383,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -410,36 +416,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -465,66 +441,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -848,586 +764,582 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E85D8FF-B615-4110-AEB4-09DAA2776E53}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>86</v>
-      </c>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>86</v>
-      </c>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>86</v>
-      </c>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>86</v>
-      </c>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>86</v>
-      </c>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>86</v>
-      </c>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>86</v>
-      </c>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>86</v>
-      </c>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>86</v>
-      </c>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>86</v>
-      </c>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>86</v>
-      </c>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>86</v>
-      </c>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>86</v>
-      </c>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>86</v>
-      </c>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>86</v>
-      </c>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>86</v>
-      </c>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>86</v>
-      </c>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>86</v>
-      </c>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A49" xr:uid="{B33A9672-0932-4FF9-9FE2-88859C556BB0}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="On Hold"/>
-        <filter val="Yet to Start"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",B13)))</formula>
+  <autoFilter ref="B1:B49" xr:uid="{B33A9672-0932-4FF9-9FE2-88859C556BB0}"/>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Yet to Start">
-      <formula>NOT(ISERROR(SEARCH("Yet to Start",A1)))</formula>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Yet to Start">
+      <formula>NOT(ISERROR(SEARCH("Yet to Start",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Hold">
-      <formula>NOT(ISERROR(SEARCH("Hold",A1)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Hold">
+      <formula>NOT(ISERROR(SEARCH("Hold",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",A1)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E16" r:id="rId1" xr:uid="{EC37F0CF-F78D-45EB-9A30-6241BFFBF509}"/>
-    <hyperlink ref="E34" r:id="rId2" xr:uid="{84A7B90E-8277-4904-AD8C-D0C186A6666C}"/>
-    <hyperlink ref="D44" r:id="rId3" xr:uid="{35AF4D5A-B46E-4B8F-A5E5-70F01A153744}"/>
+    <hyperlink ref="F16" r:id="rId1" xr:uid="{EC37F0CF-F78D-45EB-9A30-6241BFFBF509}"/>
+    <hyperlink ref="F34" r:id="rId2" xr:uid="{84A7B90E-8277-4904-AD8C-D0C186A6666C}"/>
+    <hyperlink ref="E44" r:id="rId3" xr:uid="{35AF4D5A-B46E-4B8F-A5E5-70F01A153744}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1435,10 +1347,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB274FC6-56F3-43D2-9E5F-8E27C07AFE64}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1464,7 +1377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -1475,7 +1388,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -1541,7 +1454,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
@@ -1558,7 +1471,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>86</v>
       </c>
@@ -1566,7 +1479,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
@@ -1574,7 +1487,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
@@ -1582,7 +1495,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>86</v>
       </c>
@@ -1598,7 +1511,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>86</v>
       </c>
@@ -1659,24 +1572,31 @@
         <v>6</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E19" xr:uid="{960FB5F8-F775-4491-A30F-B8F152492ED7}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="OnHold"/>
-        <filter val="Yet to Start"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E19" xr:uid="{960FB5F8-F775-4491-A30F-B8F152492ED7}"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",A1)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="OnHold">
+      <formula>NOT(ISERROR(SEARCH("OnHold",A1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Yet to Start">
       <formula>NOT(ISERROR(SEARCH("Yet to Start",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="OnHold">
-      <formula>NOT(ISERROR(SEARCH("OnHold",A1)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
